--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col4a5-Cd93.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col4a5-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.0423263528666</v>
+        <v>0.02193933333333333</v>
       </c>
       <c r="H2">
-        <v>3.0423263528666</v>
+        <v>0.065818</v>
       </c>
       <c r="I2">
-        <v>0.7570104931248686</v>
+        <v>0.00461943947553802</v>
       </c>
       <c r="J2">
-        <v>0.7570104931248686</v>
+        <v>0.004619439475538019</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N2">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O2">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P2">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q2">
-        <v>300.2004880086412</v>
+        <v>2.807885195026</v>
       </c>
       <c r="R2">
-        <v>300.2004880086412</v>
+        <v>25.270966755234</v>
       </c>
       <c r="S2">
-        <v>0.3067534033133771</v>
+        <v>0.002122512103753818</v>
       </c>
       <c r="T2">
-        <v>0.3067534033133771</v>
+        <v>0.002122512103753818</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -602,49 +602,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.0423263528666</v>
+        <v>0.02193933333333333</v>
       </c>
       <c r="H3">
-        <v>3.0423263528666</v>
+        <v>0.065818</v>
       </c>
       <c r="I3">
-        <v>0.7570104931248686</v>
+        <v>0.00461943947553802</v>
       </c>
       <c r="J3">
-        <v>0.7570104931248686</v>
+        <v>0.004619439475538019</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N3">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O3">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P3">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q3">
-        <v>171.4528739518333</v>
+        <v>1.326308156680445</v>
       </c>
       <c r="R3">
-        <v>171.4528739518333</v>
+        <v>11.936773410124</v>
       </c>
       <c r="S3">
-        <v>0.1751954267012065</v>
+        <v>0.001002571302006382</v>
       </c>
       <c r="T3">
-        <v>0.1751954267012065</v>
+        <v>0.001002571302006381</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -664,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.0423263528666</v>
+        <v>0.02193933333333333</v>
       </c>
       <c r="H4">
-        <v>3.0423263528666</v>
+        <v>0.065818</v>
       </c>
       <c r="I4">
-        <v>0.7570104931248686</v>
+        <v>0.00461943947553802</v>
       </c>
       <c r="J4">
-        <v>0.7570104931248686</v>
+        <v>0.004619439475538019</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N4">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O4">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P4">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q4">
-        <v>179.8545399180217</v>
+        <v>1.302753561869778</v>
       </c>
       <c r="R4">
-        <v>179.8545399180217</v>
+        <v>11.724782056828</v>
       </c>
       <c r="S4">
-        <v>0.1837804881237458</v>
+        <v>0.0009847661179934384</v>
       </c>
       <c r="T4">
-        <v>0.1837804881237458</v>
+        <v>0.0009847661179934381</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -726,49 +726,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>3.0423263528666</v>
+        <v>0.02193933333333333</v>
       </c>
       <c r="H5">
-        <v>3.0423263528666</v>
+        <v>0.065818</v>
       </c>
       <c r="I5">
-        <v>0.7570104931248686</v>
+        <v>0.00461943947553802</v>
       </c>
       <c r="J5">
-        <v>0.7570104931248686</v>
+        <v>0.004619439475538019</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N5">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O5">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P5">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q5">
-        <v>84.04943715892156</v>
+        <v>0.6199573885371112</v>
       </c>
       <c r="R5">
-        <v>84.04943715892156</v>
+        <v>5.579616496834</v>
       </c>
       <c r="S5">
-        <v>0.08588410720481862</v>
+        <v>0.0004686327857394621</v>
       </c>
       <c r="T5">
-        <v>0.08588410720481862</v>
+        <v>0.000468632785739462</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>3.0423263528666</v>
+        <v>0.02193933333333333</v>
       </c>
       <c r="H6">
-        <v>3.0423263528666</v>
+        <v>0.065818</v>
       </c>
       <c r="I6">
-        <v>0.7570104931248686</v>
+        <v>0.00461943947553802</v>
       </c>
       <c r="J6">
-        <v>0.7570104931248686</v>
+        <v>0.004619439475538019</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N6">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O6">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P6">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q6">
-        <v>5.281774755838695</v>
+        <v>0.05418250381911111</v>
       </c>
       <c r="R6">
-        <v>5.281774755838695</v>
+        <v>0.487642534372</v>
       </c>
       <c r="S6">
-        <v>0.005397067781720475</v>
+        <v>4.095716604491942E-05</v>
       </c>
       <c r="T6">
-        <v>0.005397067781720475</v>
+        <v>4.095716604491941E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.976543108649265</v>
+        <v>3.059667666666666</v>
       </c>
       <c r="H7">
-        <v>0.976543108649265</v>
+        <v>9.179003</v>
       </c>
       <c r="I7">
-        <v>0.2429895068751314</v>
+        <v>0.6442287642329135</v>
       </c>
       <c r="J7">
-        <v>0.2429895068751314</v>
+        <v>0.6442287642329135</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N7">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O7">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P7">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q7">
-        <v>96.36004944103357</v>
+        <v>391.588723887071</v>
       </c>
       <c r="R7">
-        <v>96.36004944103357</v>
+        <v>3524.298514983639</v>
       </c>
       <c r="S7">
-        <v>0.09846344123408449</v>
+        <v>0.29600633516504</v>
       </c>
       <c r="T7">
-        <v>0.09846344123408449</v>
+        <v>0.29600633516504</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.976543108649265</v>
+        <v>3.059667666666666</v>
       </c>
       <c r="H8">
-        <v>0.976543108649265</v>
+        <v>9.179003</v>
       </c>
       <c r="I8">
-        <v>0.2429895068751314</v>
+        <v>0.6442287642329135</v>
       </c>
       <c r="J8">
-        <v>0.2429895068751314</v>
+        <v>0.6442287642329135</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N8">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O8">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P8">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q8">
-        <v>55.03391257088958</v>
+        <v>184.9674336669949</v>
       </c>
       <c r="R8">
-        <v>55.03391257088958</v>
+        <v>1664.706903002954</v>
       </c>
       <c r="S8">
-        <v>0.05623521830612509</v>
+        <v>0.1398189703246905</v>
       </c>
       <c r="T8">
-        <v>0.05623521830612509</v>
+        <v>0.1398189703246905</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.976543108649265</v>
+        <v>3.059667666666666</v>
       </c>
       <c r="H9">
-        <v>0.976543108649265</v>
+        <v>9.179003</v>
       </c>
       <c r="I9">
-        <v>0.2429895068751314</v>
+        <v>0.6442287642329135</v>
       </c>
       <c r="J9">
-        <v>0.2429895068751314</v>
+        <v>0.6442287642329135</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N9">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O9">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P9">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q9">
-        <v>57.73072680080404</v>
+        <v>181.6825010280376</v>
       </c>
       <c r="R9">
-        <v>57.73072680080404</v>
+        <v>1635.142509252338</v>
       </c>
       <c r="S9">
-        <v>0.05899089984621103</v>
+        <v>0.137335852674954</v>
       </c>
       <c r="T9">
-        <v>0.05899089984621103</v>
+        <v>0.137335852674954</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.976543108649265</v>
+        <v>3.059667666666666</v>
       </c>
       <c r="H10">
-        <v>0.976543108649265</v>
+        <v>9.179003</v>
       </c>
       <c r="I10">
-        <v>0.2429895068751314</v>
+        <v>0.6442287642329135</v>
       </c>
       <c r="J10">
-        <v>0.2429895068751314</v>
+        <v>0.6442287642329135</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N10">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O10">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P10">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q10">
-        <v>26.97866340540924</v>
+        <v>86.45949024969322</v>
       </c>
       <c r="R10">
-        <v>26.97866340540924</v>
+        <v>778.1354122472391</v>
       </c>
       <c r="S10">
-        <v>0.02756756616670501</v>
+        <v>0.06535570430886505</v>
       </c>
       <c r="T10">
-        <v>0.02756756616670501</v>
+        <v>0.06535570430886505</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.059667666666666</v>
+      </c>
+      <c r="H11">
+        <v>9.179003</v>
+      </c>
+      <c r="I11">
+        <v>0.6442287642329135</v>
+      </c>
+      <c r="J11">
+        <v>0.6442287642329135</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.469651333333333</v>
+      </c>
+      <c r="N11">
+        <v>7.408954</v>
+      </c>
+      <c r="O11">
+        <v>0.008866263160672582</v>
+      </c>
+      <c r="P11">
+        <v>0.008866263160672582</v>
+      </c>
+      <c r="Q11">
+        <v>7.556312332540221</v>
+      </c>
+      <c r="R11">
+        <v>68.006810992862</v>
+      </c>
+      <c r="S11">
+        <v>0.005711901759363903</v>
+      </c>
+      <c r="T11">
+        <v>0.005711901759363903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.976543108649265</v>
-      </c>
-      <c r="H11">
-        <v>0.976543108649265</v>
-      </c>
-      <c r="I11">
-        <v>0.2429895068751314</v>
-      </c>
-      <c r="J11">
-        <v>0.2429895068751314</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.73609736209332</v>
-      </c>
-      <c r="N11">
-        <v>1.73609736209332</v>
-      </c>
-      <c r="O11">
-        <v>0.007129449103726268</v>
-      </c>
-      <c r="P11">
-        <v>0.007129449103726268</v>
-      </c>
-      <c r="Q11">
-        <v>1.695373914896399</v>
-      </c>
-      <c r="R11">
-        <v>1.695373914896399</v>
-      </c>
-      <c r="S11">
-        <v>0.001732381322005794</v>
-      </c>
-      <c r="T11">
-        <v>0.001732381322005794</v>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.667742666666667</v>
+      </c>
+      <c r="H12">
+        <v>5.003228</v>
+      </c>
+      <c r="I12">
+        <v>0.3511517962915484</v>
+      </c>
+      <c r="J12">
+        <v>0.3511517962915484</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>127.984071</v>
+      </c>
+      <c r="N12">
+        <v>383.952213</v>
+      </c>
+      <c r="O12">
+        <v>0.4594739502473105</v>
+      </c>
+      <c r="P12">
+        <v>0.4594739502473105</v>
+      </c>
+      <c r="Q12">
+        <v>213.444495860396</v>
+      </c>
+      <c r="R12">
+        <v>1921.000462743564</v>
+      </c>
+      <c r="S12">
+        <v>0.1613451029785166</v>
+      </c>
+      <c r="T12">
+        <v>0.1613451029785166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.667742666666667</v>
+      </c>
+      <c r="H13">
+        <v>5.003228</v>
+      </c>
+      <c r="I13">
+        <v>0.3511517962915484</v>
+      </c>
+      <c r="J13">
+        <v>0.3511517962915484</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>60.45343933333334</v>
+      </c>
+      <c r="N13">
+        <v>181.360318</v>
+      </c>
+      <c r="O13">
+        <v>0.2170331070069088</v>
+      </c>
+      <c r="P13">
+        <v>0.2170331070069088</v>
+      </c>
+      <c r="Q13">
+        <v>100.8207801229449</v>
+      </c>
+      <c r="R13">
+        <v>907.387021106504</v>
+      </c>
+      <c r="S13">
+        <v>0.07621156538021186</v>
+      </c>
+      <c r="T13">
+        <v>0.07621156538021186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.667742666666667</v>
+      </c>
+      <c r="H14">
+        <v>5.003228</v>
+      </c>
+      <c r="I14">
+        <v>0.3511517962915484</v>
+      </c>
+      <c r="J14">
+        <v>0.3511517962915484</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>59.37981533333334</v>
+      </c>
+      <c r="N14">
+        <v>178.139446</v>
+      </c>
+      <c r="O14">
+        <v>0.2131787034353868</v>
+      </c>
+      <c r="P14">
+        <v>0.2131787034353868</v>
+      </c>
+      <c r="Q14">
+        <v>99.03025157018756</v>
+      </c>
+      <c r="R14">
+        <v>891.2722641316881</v>
+      </c>
+      <c r="S14">
+        <v>0.07485808464243937</v>
+      </c>
+      <c r="T14">
+        <v>0.07485808464243936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.667742666666667</v>
+      </c>
+      <c r="H15">
+        <v>5.003228</v>
+      </c>
+      <c r="I15">
+        <v>0.3511517962915484</v>
+      </c>
+      <c r="J15">
+        <v>0.3511517962915484</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>28.25780433333334</v>
+      </c>
+      <c r="N15">
+        <v>84.77341300000001</v>
+      </c>
+      <c r="O15">
+        <v>0.1014479761497213</v>
+      </c>
+      <c r="P15">
+        <v>0.1014479761497213</v>
+      </c>
+      <c r="Q15">
+        <v>47.12674595301822</v>
+      </c>
+      <c r="R15">
+        <v>424.140713577164</v>
+      </c>
+      <c r="S15">
+        <v>0.0356236390551168</v>
+      </c>
+      <c r="T15">
+        <v>0.0356236390551168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.667742666666667</v>
+      </c>
+      <c r="H16">
+        <v>5.003228</v>
+      </c>
+      <c r="I16">
+        <v>0.3511517962915484</v>
+      </c>
+      <c r="J16">
+        <v>0.3511517962915484</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.469651333333333</v>
+      </c>
+      <c r="N16">
+        <v>7.408954</v>
+      </c>
+      <c r="O16">
+        <v>0.008866263160672582</v>
+      </c>
+      <c r="P16">
+        <v>0.008866263160672582</v>
+      </c>
+      <c r="Q16">
+        <v>4.118742900390222</v>
+      </c>
+      <c r="R16">
+        <v>37.068686103512</v>
+      </c>
+      <c r="S16">
+        <v>0.003113404235263759</v>
+      </c>
+      <c r="T16">
+        <v>0.003113404235263759</v>
       </c>
     </row>
   </sheetData>
